--- a/src/main/webapp/assets/templates/import-preallocations-compen-template.xlsx
+++ b/src/main/webapp/assets/templates/import-preallocations-compen-template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,105 @@
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意事项</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：导入时请保证</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被拆除腾退人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列存在且不为空，款项列请保证为数字（小数点后2位），日期格式为“2017-06-01”，状态列按照提示操作，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导入时删除此行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,9 +224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +236,33 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -163,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -172,10 +298,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,7 +623,7 @@
     <col min="5" max="5" width="18.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="27.75" style="5" customWidth="1"/>
     <col min="7" max="7" width="16.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="5" customWidth="1"/>
     <col min="9" max="9" width="16.25" style="5" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.125" style="5" customWidth="1"/>
@@ -516,94 +645,108 @@
     <col min="28" max="28" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="1048576" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G1048576" s="5">
-        <f>SUM(G2:G1048575)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请修改" error="请按照提示修改状态" promptTitle="请选择输入以下状态" prompt="未签约_x000a_已签约_x000a_已审核_x000a_已交房_x000a_已拆除_x000a_已放款_x000a_已归档" sqref="T1:T1048576">
+      <formula1>"未签约,已签约,已审核,已交房,已拆除,已放款,已归档"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
